--- a/AFマスター.xlsx
+++ b/AFマスター.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1958820397666/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{46342269-F254-4CAD-B1DA-15D9221C87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FD37176-694E-449B-B5A6-F2ACAE602271}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{46342269-F254-4CAD-B1DA-15D9221C87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8B35D9-B767-4F2A-86A4-6E810A8325CF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{56E37DC4-DFDA-413A-A4E6-1369CBF9CBF7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56E37DC4-DFDA-413A-A4E6-1369CBF9CBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="割り振りマスター" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="451">
   <si>
     <t>AFコード</t>
   </si>
@@ -81,9 +81,6 @@
     <t>LTG002</t>
   </si>
   <si>
-    <t>LS_テスト用</t>
-  </si>
-  <si>
     <t>LTG003</t>
   </si>
   <si>
@@ -1350,13 +1347,6 @@
   </si>
   <si>
     <t>LTG029</t>
-  </si>
-  <si>
-    <t>現在未使用</t>
-    <rPh sb="0" eb="5">
-      <t>ゲンザイミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>一時使用停止（LTG012で計測中）</t>
@@ -1478,6 +1468,77 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LS_Google単体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LTG030</t>
+  </si>
+  <si>
+    <t>LS_MS単体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般用</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LS_Google単体→2025年11月よりMSその他</t>
+    <rPh sb="16" eb="17">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP検証用</t>
+    <rPh sb="2" eb="5">
+      <t>ケンショウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10/17以降開始_ディズニー</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10/17以降開始_ピンクカード</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>10/17以降開始_ポイントカード</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1499,7 +1560,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10/17以降（Edy）のみにします</t>
+      <t>10/17以降（ETC）のみにします</t>
     </r>
     <rPh sb="8" eb="10">
       <t>カンレン</t>
@@ -1510,7 +1571,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>10/17以降開始</t>
+    <t>10/17以降開始_ETC</t>
     <rPh sb="5" eb="7">
       <t>イコウ</t>
     </rPh>
@@ -1519,12 +1580,28 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>10/17以降開始_申し込み</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1572,13 +1649,27 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1595,11 +1686,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1936,14 +2033,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C873EE-46C2-4AAA-9385-A8FDFAFB90AE}">
-  <dimension ref="B2:G229"/>
+  <dimension ref="B2:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="5" width="105.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -1977,39 +2074,39 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>433</v>
+      <c r="E5" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2020,10 +2117,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2034,136 +2131,136 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -2174,10 +2271,10 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -2188,3157 +2285,3171 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>441</v>
+      <c r="E20" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D52" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="D89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D90" t="s">
-        <v>37</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D93" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D100" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D101" t="s">
-        <v>37</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="D116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D117" t="s">
-        <v>37</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D120" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D128" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D131" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D138" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D151" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D159" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D167" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D180" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D185" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D193" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D195" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D197" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D200" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D201" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D202" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D203" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D205" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D209" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D210" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D214" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D219" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D220" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D224" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D228" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D229" t="s">
+        <v>36</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B230" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D230" t="s">
+        <v>36</v>
+      </c>
+      <c r="E230" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D229" t="s">
-        <v>37</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G229" s="1"/>
+      <c r="G230" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/AFマスター.xlsx
+++ b/AFマスター.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1958820397666/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{46342269-F254-4CAD-B1DA-15D9221C87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D8B35D9-B767-4F2A-86A4-6E810A8325CF}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{46342269-F254-4CAD-B1DA-15D9221C87F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D52F5AD-B394-4F2D-8588-57512989A887}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{56E37DC4-DFDA-413A-A4E6-1369CBF9CBF7}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{56E37DC4-DFDA-413A-A4E6-1369CBF9CBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="割り振りマスター" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="451">
   <si>
     <t>AFコード</t>
   </si>
@@ -81,1272 +81,31 @@
     <t>LTG002</t>
   </si>
   <si>
+    <t>LS_Google単体</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LP検証用</t>
+    <rPh sb="2" eb="5">
+      <t>ケンショウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>LTG003</t>
   </si>
   <si>
-    <t>LS_Google単体</t>
-  </si>
-  <si>
-    <t>LTG004</t>
-  </si>
-  <si>
-    <t>LS_Yahoo単体</t>
-  </si>
-  <si>
-    <t>LTG005</t>
-  </si>
-  <si>
-    <t>LS_Yahoo単体（PSD）</t>
-  </si>
-  <si>
-    <t>LTG006</t>
-  </si>
-  <si>
-    <t>LS_Google単体以外</t>
-  </si>
-  <si>
-    <t>LTG007</t>
-  </si>
-  <si>
-    <t>LS_Yahoo単体以外</t>
-  </si>
-  <si>
-    <t>LTG008</t>
-  </si>
-  <si>
-    <t>LTG009</t>
-  </si>
-  <si>
-    <t>LTG010</t>
-  </si>
-  <si>
-    <t>LTG011</t>
-  </si>
-  <si>
-    <t>LTG012</t>
-  </si>
-  <si>
-    <t>LTG013</t>
-  </si>
-  <si>
-    <t>LTG015</t>
+    <t>LS_Google単体→2025年11月よりMSその他</t>
+    <rPh sb="16" eb="17">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LTG017</t>
-  </si>
-  <si>
-    <t>LS_MS単体</t>
-  </si>
-  <si>
-    <t>LTG018</t>
-  </si>
-  <si>
-    <t>LS_MS単体以外</t>
-  </si>
-  <si>
-    <t>LTG019</t>
-  </si>
-  <si>
-    <t>LTG020</t>
-  </si>
-  <si>
-    <t>LTG021</t>
-  </si>
-  <si>
-    <t>LTG022</t>
-  </si>
-  <si>
-    <t>DPL001</t>
-  </si>
-  <si>
-    <t>DS_Yahoo</t>
-  </si>
-  <si>
-    <t>Display</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楽天カード関連KW/URL指定</t>
-  </si>
-  <si>
-    <t>DPL002</t>
-  </si>
-  <si>
-    <t>ポイント・お得興味関心</t>
-  </si>
-  <si>
-    <t>DPL003</t>
-  </si>
-  <si>
-    <t>楽天カード関連KW/URL指定＋スマートターゲティング</t>
-  </si>
-  <si>
-    <t>DPL004</t>
-  </si>
-  <si>
-    <t>ポイント・お得興味関心＋スマートターゲティング</t>
-  </si>
-  <si>
-    <t>DPL005</t>
-  </si>
-  <si>
-    <t>各種ページ訪問者 過去１〜7日</t>
-  </si>
-  <si>
-    <t>DPL006</t>
-  </si>
-  <si>
-    <t>楽天系金融サービスKW／URL</t>
-  </si>
-  <si>
-    <t>DPL007</t>
-  </si>
-  <si>
-    <t>クレジットカード・金融サービス興味関心</t>
-  </si>
-  <si>
-    <t>DPL008</t>
-  </si>
-  <si>
-    <t>ドラゴンボール アニメ漫画興味関心</t>
-  </si>
-  <si>
-    <t>DPL009</t>
-  </si>
-  <si>
-    <t>ドラゴンボール ゲーム興味関心</t>
-  </si>
-  <si>
-    <t>DPL010</t>
-  </si>
-  <si>
-    <t>ドラゴンボールページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL011</t>
-  </si>
-  <si>
-    <t>キキララ／こぎみゅん 関連商品閲覧者・購入者</t>
-  </si>
-  <si>
-    <t>DPL012</t>
-  </si>
-  <si>
-    <t>サンリオ関連商品閲覧・購入者</t>
-  </si>
-  <si>
-    <t>DPL013</t>
-  </si>
-  <si>
-    <t>キキララ／こぎみゅんページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL014</t>
-  </si>
-  <si>
-    <t>オンデマンド 推し活訴求</t>
-  </si>
-  <si>
-    <t>DPL015</t>
-  </si>
-  <si>
-    <t>オンデマンド用_ポイント・お得興味関心</t>
-  </si>
-  <si>
-    <t>DPL016</t>
-  </si>
-  <si>
-    <t>オンデマンドページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL017</t>
-  </si>
-  <si>
-    <t>予備</t>
-  </si>
-  <si>
-    <t>DPL018</t>
-  </si>
-  <si>
-    <t>予備2</t>
-  </si>
-  <si>
-    <t>DPL019</t>
-  </si>
-  <si>
-    <t>予備3</t>
-  </si>
-  <si>
-    <t>DPL020</t>
-  </si>
-  <si>
-    <t>予備4</t>
-  </si>
-  <si>
-    <t>DPL021</t>
-  </si>
-  <si>
-    <t>予備5</t>
-  </si>
-  <si>
-    <t>DPL022</t>
-  </si>
-  <si>
-    <t>DS_Google</t>
-  </si>
-  <si>
-    <t>デマンド_楽天カード関連KW/URL指定</t>
-  </si>
-  <si>
-    <t>DPL023</t>
-  </si>
-  <si>
-    <t>デマンド_ポイント・お得興味関心</t>
-  </si>
-  <si>
-    <t>DPL024</t>
-  </si>
-  <si>
-    <t>デマンド_各種ページ訪問者 過去１〜7日</t>
-  </si>
-  <si>
-    <t>DPL025</t>
-  </si>
-  <si>
-    <t>デマンド_楽天系金融サービスKW／URL</t>
-  </si>
-  <si>
-    <t>DPL026</t>
-  </si>
-  <si>
-    <t>デマンド_クレジットカードアプリ・金融サービス興味関心</t>
-  </si>
-  <si>
-    <t>DPL027</t>
-  </si>
-  <si>
-    <t>デマンド_ドラゴンボール アニメ漫画興味関心</t>
-  </si>
-  <si>
-    <t>DPL028</t>
-  </si>
-  <si>
-    <t>デマンド_ドラゴンボール ゲーム興味関心</t>
-  </si>
-  <si>
-    <t>DPL029</t>
-  </si>
-  <si>
-    <t>デマンド_ドラゴンボールページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL030</t>
-  </si>
-  <si>
-    <t>デマンド_キキララ／こぎみゅん 関連商品閲覧者・購入者</t>
-  </si>
-  <si>
-    <t>DPL031</t>
-  </si>
-  <si>
-    <t>デマンド_サンリオ関連商品閲覧・購入者</t>
-  </si>
-  <si>
-    <t>DPL032</t>
-  </si>
-  <si>
-    <t>デマンド_キキララ／こぎみゅんページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL033</t>
-  </si>
-  <si>
-    <t>デマンド_オンデマンド 推し活訴求</t>
-  </si>
-  <si>
-    <t>DPL034</t>
-  </si>
-  <si>
-    <t>デマンド_オンデマンド用_ポイント・お得興味関心</t>
-  </si>
-  <si>
-    <t>DPL035</t>
-  </si>
-  <si>
-    <t>デマンド_オンデマンドページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL036</t>
-  </si>
-  <si>
-    <t>デマンド_予備</t>
-  </si>
-  <si>
-    <t>DPL037</t>
-  </si>
-  <si>
-    <t>デマンド_予備2</t>
-  </si>
-  <si>
-    <t>DPL038</t>
-  </si>
-  <si>
-    <t>デマンド_予備3</t>
-  </si>
-  <si>
-    <t>DPL039</t>
-  </si>
-  <si>
-    <t>デマンド_予備4</t>
-  </si>
-  <si>
-    <t>DPL040</t>
-  </si>
-  <si>
-    <t>デマンド_予備5</t>
-  </si>
-  <si>
-    <t>DPL041</t>
-  </si>
-  <si>
-    <t>GDN_楽天カード関連KW/URL指定</t>
-  </si>
-  <si>
-    <t>DPL042</t>
-  </si>
-  <si>
-    <t>GDN_ポイント・お得興味関心</t>
-  </si>
-  <si>
-    <t>DPL043</t>
-  </si>
-  <si>
-    <t>GDN_各種ページ訪問者 過去１〜7日</t>
-  </si>
-  <si>
-    <t>DPL044</t>
-  </si>
-  <si>
-    <t>GDN_楽天系金融サービスKW／URL</t>
-  </si>
-  <si>
-    <t>DPL045</t>
-  </si>
-  <si>
-    <t>GDN_クレジットカードアプリ・金融サービス興味関心</t>
-  </si>
-  <si>
-    <t>DPL046</t>
-  </si>
-  <si>
-    <t>GDN_ドラゴンボール アニメ漫画興味関心</t>
-  </si>
-  <si>
-    <t>DPL047</t>
-  </si>
-  <si>
-    <t>GDN_ドラゴンボール ゲーム興味関心</t>
-  </si>
-  <si>
-    <t>DPL048</t>
-  </si>
-  <si>
-    <t>GDN_ドラゴンボールページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL049</t>
-  </si>
-  <si>
-    <t>GDN_キキララ／こぎみゅん 関連商品閲覧者・購入者</t>
-  </si>
-  <si>
-    <t>DPL050</t>
-  </si>
-  <si>
-    <t>GDN_サンリオ関連商品閲覧・購入者</t>
-  </si>
-  <si>
-    <t>DPL051</t>
-  </si>
-  <si>
-    <t>GDN_キキララ／こぎみゅんページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL052</t>
-  </si>
-  <si>
-    <t>GDN_オンデマンド 推し活訴求</t>
-  </si>
-  <si>
-    <t>DPL053</t>
-  </si>
-  <si>
-    <t>GDN_オンデマンド用_ポイント・お得興味関心</t>
-  </si>
-  <si>
-    <t>DPL054</t>
-  </si>
-  <si>
-    <t>GDN_オンデマンドページ訪問者</t>
-  </si>
-  <si>
-    <t>DPL055</t>
-  </si>
-  <si>
-    <t>GDN_予備</t>
-  </si>
-  <si>
-    <t>DPL056</t>
-  </si>
-  <si>
-    <t>GDN_予備2</t>
-  </si>
-  <si>
-    <t>DPL057</t>
-  </si>
-  <si>
-    <t>GDN_予備3</t>
-  </si>
-  <si>
-    <t>DPL058</t>
-  </si>
-  <si>
-    <t>GDN_予備4</t>
-  </si>
-  <si>
-    <t>DPL059</t>
-  </si>
-  <si>
-    <t>GDN_予備5</t>
-  </si>
-  <si>
-    <t>DPL060</t>
-  </si>
-  <si>
-    <t>DS_Unified-Ads</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>DPL061</t>
-  </si>
-  <si>
-    <t>DPL062</t>
-  </si>
-  <si>
-    <t>DPL063</t>
-  </si>
-  <si>
-    <t>DS_LINE</t>
-  </si>
-  <si>
-    <t>リーセンシー(1~7日)</t>
-  </si>
-  <si>
-    <t>DPL064</t>
-  </si>
-  <si>
-    <t>リーセンシー(8~90日)</t>
-  </si>
-  <si>
-    <t>DPL065</t>
-  </si>
-  <si>
-    <t>DPL066</t>
-  </si>
-  <si>
-    <t>DPL067</t>
-  </si>
-  <si>
-    <t>DPL068</t>
-  </si>
-  <si>
-    <t>DPL069</t>
-  </si>
-  <si>
-    <t>DPL070</t>
-  </si>
-  <si>
-    <t>DS_Twitter</t>
-  </si>
-  <si>
-    <t>CV最大化運用_socialDatabaseデータ活用</t>
-  </si>
-  <si>
-    <t>DPL071</t>
-  </si>
-  <si>
-    <t>DPL072</t>
-  </si>
-  <si>
-    <t>t-cpa運用_socialDatabaseデータ活用</t>
-  </si>
-  <si>
-    <t>DPL073</t>
-  </si>
-  <si>
-    <t>DPL074</t>
-  </si>
-  <si>
-    <t>ドラゴンボール/孫悟空関連キーワードターゲティング</t>
-  </si>
-  <si>
-    <t>DPL075</t>
-  </si>
-  <si>
-    <t>ドラゴンボール/孫悟空関連フォロワーターゲティング</t>
-  </si>
-  <si>
-    <t>DPL076</t>
-  </si>
-  <si>
-    <t>サンリオ/キキララ/こぎみゅん関連キーワードターゲティング</t>
-  </si>
-  <si>
-    <t>DPL077</t>
-  </si>
-  <si>
-    <t>サンリオ/キキララ/こぎみゅん関連フォロワーターゲティング</t>
-  </si>
-  <si>
-    <t>DPL078</t>
-  </si>
-  <si>
-    <t>キキララ保有者拡張</t>
-  </si>
-  <si>
-    <t>DPL079</t>
-  </si>
-  <si>
-    <t>こぎみゅん保有者拡張</t>
-  </si>
-  <si>
-    <t>DPL080</t>
-  </si>
-  <si>
-    <t>ドラゴンボール保有者拡張</t>
-  </si>
-  <si>
-    <t>DPL081</t>
-  </si>
-  <si>
-    <t>推し活関連ターゲティング</t>
-  </si>
-  <si>
-    <t>DPL082</t>
-  </si>
-  <si>
-    <t>DPL083</t>
-  </si>
-  <si>
-    <t>DPL084</t>
-  </si>
-  <si>
-    <t>DPL085</t>
-  </si>
-  <si>
-    <t>DPL086</t>
-  </si>
-  <si>
-    <t>DPL087</t>
-  </si>
-  <si>
-    <t>DS_Meta</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_b1</t>
-  </si>
-  <si>
-    <t>DPL088</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_b2</t>
-  </si>
-  <si>
-    <t>DPL089</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_b3</t>
-  </si>
-  <si>
-    <t>DPL090</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_b4</t>
-  </si>
-  <si>
-    <t>DPL091</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_b5</t>
-  </si>
-  <si>
-    <t>DPL092</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_b6</t>
-  </si>
-  <si>
-    <t>DPL093</t>
-  </si>
-  <si>
-    <t>高級志向(媒体データ)</t>
-  </si>
-  <si>
-    <t>DPL094</t>
-  </si>
-  <si>
-    <t>高級志向(SQREEMデータ)</t>
-  </si>
-  <si>
-    <t>DPL095</t>
-  </si>
-  <si>
-    <t>高級志向(楽天データ)</t>
-  </si>
-  <si>
-    <t>DPL096</t>
-  </si>
-  <si>
-    <t>高収入(年収平均以上)</t>
-  </si>
-  <si>
-    <t>DPL097</t>
-  </si>
-  <si>
-    <t>発行者拡張(保有者×Airis(楽天データ拡張))</t>
-  </si>
-  <si>
-    <t>DPL098</t>
-  </si>
-  <si>
-    <t>発行者拡張(保有者×媒体データ拡張)</t>
-  </si>
-  <si>
-    <t>DPL099</t>
-  </si>
-  <si>
-    <t>発行者拡張(直近発行者×Airis(楽天データ拡張))</t>
-  </si>
-  <si>
-    <t>DPL100</t>
-  </si>
-  <si>
-    <t>発行者拡張(直近発行者×媒体データ拡張)</t>
-  </si>
-  <si>
-    <t>DPL101</t>
-  </si>
-  <si>
-    <t>発行者拡張(上位カード保有者×Airis(楽天データ拡張))</t>
-  </si>
-  <si>
-    <t>DPL102</t>
-  </si>
-  <si>
-    <t>発行者拡張(上位カード保有者×媒体データ拡張)</t>
-  </si>
-  <si>
-    <t>DPL103</t>
-  </si>
-  <si>
-    <t>リターゲティング_リーセンシー1/3/7/10日</t>
-  </si>
-  <si>
-    <t>DPL104</t>
-  </si>
-  <si>
-    <t>リターゲティング_リーセンシー30/90/180日</t>
-  </si>
-  <si>
-    <t>DPL105</t>
-  </si>
-  <si>
-    <t>ASCバナー</t>
-  </si>
-  <si>
-    <t>DPL106</t>
-  </si>
-  <si>
-    <t>ASC単価バナー</t>
-  </si>
-  <si>
-    <t>DPL107</t>
-  </si>
-  <si>
-    <t>ドラゴンボール/孫悟空関連閲覧・購買＋拡張</t>
-  </si>
-  <si>
-    <t>DPL108</t>
-  </si>
-  <si>
-    <t>アニメ漫画興味関心層</t>
-  </si>
-  <si>
-    <t>DPL109</t>
-  </si>
-  <si>
-    <t>サンリオ・キキララ・こぎみゅん関連閲覧購買・拡張</t>
-  </si>
-  <si>
-    <t>DPL110</t>
-  </si>
-  <si>
-    <t>エリアターゲティング ピューロランド×サンリオ興味関心</t>
-  </si>
-  <si>
-    <t>DPL111</t>
-  </si>
-  <si>
-    <t>DPL112</t>
-  </si>
-  <si>
-    <t>DPL113</t>
-  </si>
-  <si>
-    <t>DPL114</t>
-  </si>
-  <si>
-    <t>推し活興味関心層</t>
-  </si>
-  <si>
-    <t>DPL115</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_1 (Meta1)</t>
-  </si>
-  <si>
-    <t>DPL116</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_2 (Meta2)</t>
-  </si>
-  <si>
-    <t>DPL117</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_3 (Meta3)</t>
-  </si>
-  <si>
-    <t>DPL118</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_4 (Meta4)</t>
-  </si>
-  <si>
-    <t>DPL119</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_5 (Meta5)</t>
-  </si>
-  <si>
-    <t>DPL120</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_6 (Meta6)</t>
-  </si>
-  <si>
-    <t>DPL121</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_7 (Meta7)</t>
-  </si>
-  <si>
-    <t>DPL122</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_8 (Meta8)</t>
-  </si>
-  <si>
-    <t>DPL123</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_9 (Meta9)</t>
-  </si>
-  <si>
-    <t>DPL124</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_10 (Meta10)</t>
-  </si>
-  <si>
-    <t>DPL125</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_11 (Meta11)</t>
-  </si>
-  <si>
-    <t>DPL126</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_12 (Meta12)</t>
-  </si>
-  <si>
-    <t>DPL127</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_13 (Meta13)</t>
-  </si>
-  <si>
-    <t>DPL128</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_14 (Meta14)</t>
-  </si>
-  <si>
-    <t>DPL129</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_15 (Meta15)</t>
-  </si>
-  <si>
-    <t>DPL130</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_16 (Meta16)</t>
-  </si>
-  <si>
-    <t>DPL131</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_17 (Meta17)</t>
-  </si>
-  <si>
-    <t>DPL132</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_18 (Meta18)</t>
-  </si>
-  <si>
-    <t>DPL133</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_19 (Meta19)</t>
-  </si>
-  <si>
-    <t>DPL134</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_20 (Meta20)</t>
-  </si>
-  <si>
-    <t>DPL135</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_21 (Meta21)</t>
-  </si>
-  <si>
-    <t>DPL136</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_22 (Meta22)</t>
-  </si>
-  <si>
-    <t>DPL137</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_23 (Meta23)</t>
-  </si>
-  <si>
-    <t>DPL138</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_24 (Meta24)</t>
-  </si>
-  <si>
-    <t>DPL139</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_25 (Meta25)</t>
-  </si>
-  <si>
-    <t>DPL140</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_26</t>
-  </si>
-  <si>
-    <t>DPL141</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_27</t>
-  </si>
-  <si>
-    <t>DPL142</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_28</t>
-  </si>
-  <si>
-    <t>DPL143</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_29</t>
-  </si>
-  <si>
-    <t>DPL144</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_30</t>
-  </si>
-  <si>
-    <t>DPL145</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_31</t>
-  </si>
-  <si>
-    <t>DPL146</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_32</t>
-  </si>
-  <si>
-    <t>DPL147</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_33</t>
-  </si>
-  <si>
-    <t>DPL148</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_34</t>
-  </si>
-  <si>
-    <t>DPL149</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_35</t>
-  </si>
-  <si>
-    <t>DPL150</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_36</t>
-  </si>
-  <si>
-    <t>DPL151</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_37</t>
-  </si>
-  <si>
-    <t>DPL152</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_38</t>
-  </si>
-  <si>
-    <t>DPL153</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_39</t>
-  </si>
-  <si>
-    <t>DPL154</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_40</t>
-  </si>
-  <si>
-    <t>DPL155</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_41</t>
-  </si>
-  <si>
-    <t>DPL156</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_42</t>
-  </si>
-  <si>
-    <t>DPL157</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_43</t>
-  </si>
-  <si>
-    <t>DPL158</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_44</t>
-  </si>
-  <si>
-    <t>DPL159</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_45</t>
-  </si>
-  <si>
-    <t>DPL160</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_46</t>
-  </si>
-  <si>
-    <t>DPL161</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_47</t>
-  </si>
-  <si>
-    <t>DPL162</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_48</t>
-  </si>
-  <si>
-    <t>DPL163</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_49</t>
-  </si>
-  <si>
-    <t>DPL164</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_50</t>
-  </si>
-  <si>
-    <t>DPL165</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_51</t>
-  </si>
-  <si>
-    <t>DPL166</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_52</t>
-  </si>
-  <si>
-    <t>DPL167</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_53</t>
-  </si>
-  <si>
-    <t>DPL168</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_54</t>
-  </si>
-  <si>
-    <t>DPL169</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_55</t>
-  </si>
-  <si>
-    <t>DPL170</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_56</t>
-  </si>
-  <si>
-    <t>DPL171</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_57</t>
-  </si>
-  <si>
-    <t>DPL172</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_58</t>
-  </si>
-  <si>
-    <t>DPL173</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_59</t>
-  </si>
-  <si>
-    <t>DPL174</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_60</t>
-  </si>
-  <si>
-    <t>DPL175</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_61</t>
-  </si>
-  <si>
-    <t>DPL176</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_62</t>
-  </si>
-  <si>
-    <t>DPL177</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_63</t>
-  </si>
-  <si>
-    <t>DPL178</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_64</t>
-  </si>
-  <si>
-    <t>DPL179</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_65</t>
-  </si>
-  <si>
-    <t>DPL180</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_66</t>
-  </si>
-  <si>
-    <t>DPL181</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_67</t>
-  </si>
-  <si>
-    <t>DPL182</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_68</t>
-  </si>
-  <si>
-    <t>DPL183</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_69</t>
-  </si>
-  <si>
-    <t>DPL184</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_70</t>
-  </si>
-  <si>
-    <t>DPL185</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_71</t>
-  </si>
-  <si>
-    <t>DPL186</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_72</t>
-  </si>
-  <si>
-    <t>DPL187</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_73</t>
-  </si>
-  <si>
-    <t>DPL188</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_74</t>
-  </si>
-  <si>
-    <t>DPL189</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_75</t>
-  </si>
-  <si>
-    <t>DPL190</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_76</t>
-  </si>
-  <si>
-    <t>DPL191</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_77</t>
-  </si>
-  <si>
-    <t>DPL192</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_78</t>
-  </si>
-  <si>
-    <t>DPL193</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_79</t>
-  </si>
-  <si>
-    <t>DPL194</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_80</t>
-  </si>
-  <si>
-    <t>DPL195</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_81</t>
-  </si>
-  <si>
-    <t>DPL196</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_82</t>
-  </si>
-  <si>
-    <t>DPL197</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_83</t>
-  </si>
-  <si>
-    <t>DPL198</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_84</t>
-  </si>
-  <si>
-    <t>DPL199</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_85</t>
-  </si>
-  <si>
-    <t>DPL200</t>
-  </si>
-  <si>
-    <t>1ADS-1AD_86</t>
-  </si>
-  <si>
-    <t>LTG023</t>
-  </si>
-  <si>
-    <t>LTG024</t>
-  </si>
-  <si>
-    <t>LTG025</t>
-  </si>
-  <si>
-    <t>LTG026</t>
-  </si>
-  <si>
-    <t>LTG027</t>
-  </si>
-  <si>
-    <t>LTG028</t>
-  </si>
-  <si>
-    <t>LTG029</t>
   </si>
   <si>
     <t>一時使用停止（LTG012で計測中）</t>
@@ -1365,6 +124,24 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG004</t>
+  </si>
+  <si>
+    <t>LS_Yahoo単体</t>
+  </si>
+  <si>
+    <t>LTG005</t>
+  </si>
+  <si>
+    <t>LS_Yahoo単体（PSD）</t>
+  </si>
+  <si>
+    <t>LTG006</t>
+  </si>
+  <si>
+    <t>LS_Google単体以外</t>
+  </si>
+  <si>
     <t>10/17以降（クレジット）のみにします</t>
     <rPh sb="5" eb="7">
       <t>イコウ</t>
@@ -1372,6 +149,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG007</t>
+  </si>
+  <si>
+    <t>LS_Yahoo単体以外</t>
+  </si>
+  <si>
+    <t>LTG008</t>
+  </si>
+  <si>
     <t>10/17以降（Edy）のみにします</t>
     <rPh sb="5" eb="7">
       <t>イコウ</t>
@@ -1379,6 +165,25 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG009</t>
+  </si>
+  <si>
+    <t>LTG010</t>
+  </si>
+  <si>
+    <t>一般用</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LTG011</t>
+  </si>
+  <si>
     <t>通常期間はジェネラル配信未実施のため未使用</t>
     <rPh sb="0" eb="4">
       <t>ツウジョウキカン</t>
@@ -1392,6 +197,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG012</t>
+  </si>
+  <si>
+    <t>LS_Google単体</t>
+  </si>
+  <si>
     <t>Google単体テスト用に一時使用（25/5/11~)｜1016現在一本化のためこちらを継続使用中</t>
     <rPh sb="6" eb="8">
       <t>タンタイ</t>
@@ -1423,6 +234,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG013</t>
+  </si>
+  <si>
     <t>現在未使用｜テストキャンペーンに使用（8/28~Yahoo単体：LP検証用で使用したため通常とURLが異なる）</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -1451,6 +265,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG015</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>現在未使用｜テストキャンペーンに使用（8/28~Yahooブランド：LP検証用で使用したため通常とURLが異なる）</t>
     <rPh sb="16" eb="18">
       <t>シヨウ</t>
@@ -1458,6 +276,21 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG017</t>
+  </si>
+  <si>
+    <t>LS_MS単体</t>
+  </si>
+  <si>
+    <t>LTG018</t>
+  </si>
+  <si>
+    <t>LS_MS単体以外</t>
+  </si>
+  <si>
+    <t>LTG019</t>
+  </si>
+  <si>
     <t>現在未使用</t>
     <rPh sb="0" eb="2">
       <t>ゲンザイ</t>
@@ -1468,75 +301,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>LS_Google単体</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LTG030</t>
-  </si>
-  <si>
-    <t>LS_MS単体</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一般用</t>
-    <rPh sb="0" eb="2">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>LS_Google単体→2025年11月よりMSその他</t>
-    <rPh sb="16" eb="17">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LP検証用</t>
-    <rPh sb="2" eb="5">
-      <t>ケンショウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10/17以降開始_ディズニー</t>
-    <rPh sb="5" eb="7">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10/17以降開始_ピンクカード</t>
-    <rPh sb="5" eb="7">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>10/17以降開始_ポイントカード</t>
-    <rPh sb="5" eb="7">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
+    <t>LTG020</t>
   </si>
   <si>
     <r>
@@ -1571,6 +336,70 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>LTG021</t>
+  </si>
+  <si>
+    <t>10/17以降開始_ピンクカード</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LTG022</t>
+  </si>
+  <si>
+    <t>10/17以降開始_ポイントカード</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LTG023</t>
+  </si>
+  <si>
+    <t>10/17以降開始_申し込み</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LTG024</t>
+  </si>
+  <si>
+    <t>10/17以降開始_ディズニー</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LTG025</t>
+  </si>
+  <si>
+    <t>LTG026</t>
+  </si>
+  <si>
     <t>10/17以降開始_ETC</t>
     <rPh sb="5" eb="7">
       <t>イコウ</t>
@@ -1581,20 +410,1225 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>10/17以降開始_申し込み</t>
-    <rPh sb="5" eb="7">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
+    <t>LTG027</t>
+  </si>
+  <si>
+    <t>LTG028</t>
+  </si>
+  <si>
+    <t>LTG029</t>
+  </si>
+  <si>
+    <t>LTG030</t>
+  </si>
+  <si>
+    <t>DPL001</t>
+  </si>
+  <si>
+    <t>DS_Yahoo</t>
+  </si>
+  <si>
+    <t>Display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽天カード関連KW/URL指定</t>
+  </si>
+  <si>
+    <t>DPL002</t>
+  </si>
+  <si>
+    <t>楽天カード関連KW/URL指定＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL003</t>
+  </si>
+  <si>
+    <t>各種ページ訪問者 過去１〜7日</t>
+  </si>
+  <si>
+    <t>DPL004</t>
+  </si>
+  <si>
+    <t>各種ページ訪問者 過去１〜7日＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL005</t>
+  </si>
+  <si>
+    <t>【LINE面】　楽天カード関連KW/URL指定</t>
+  </si>
+  <si>
+    <t>DPL006</t>
+  </si>
+  <si>
+    <t>【LINE面】　楽天カード関連KW/URL指定＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL007</t>
+  </si>
+  <si>
+    <t>【LINE面】　各種ページ訪問者 過去１〜7日</t>
+  </si>
+  <si>
+    <t>DPL008</t>
+  </si>
+  <si>
+    <t>【LINE面】　各種ページ訪問者 過去１〜7日＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL009</t>
+  </si>
+  <si>
+    <t>ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心</t>
+  </si>
+  <si>
+    <t>DPL010</t>
+  </si>
+  <si>
+    <t>ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL011</t>
+  </si>
+  <si>
+    <t>【LINE面】ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心</t>
+  </si>
+  <si>
+    <t>DPL012</t>
+  </si>
+  <si>
+    <t>【LINE面】ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL013</t>
+  </si>
+  <si>
+    <t>サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者</t>
+  </si>
+  <si>
+    <t>DPL014</t>
+  </si>
+  <si>
+    <t>サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL015</t>
+  </si>
+  <si>
+    <t>【LINE面】サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者</t>
+  </si>
+  <si>
+    <t>DPL016</t>
+  </si>
+  <si>
+    <t>【LINE面】サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL017</t>
+  </si>
+  <si>
+    <t>DPIデータ活用_日本人向けアプリユーザー</t>
+  </si>
+  <si>
+    <t>DPL018</t>
+  </si>
+  <si>
+    <t>DPIデータ活用_競合クレカ</t>
+  </si>
+  <si>
+    <t>DPL019</t>
+  </si>
+  <si>
+    <t>DPIデータ活用_競合銀行</t>
+  </si>
+  <si>
+    <t>DPL020</t>
+  </si>
+  <si>
+    <t>DPIデータ活用_競合証券</t>
+  </si>
+  <si>
+    <t>DPL021</t>
+  </si>
+  <si>
+    <t>DPIデータ活用_競合QR決済</t>
+  </si>
+  <si>
+    <t>DPL022</t>
+  </si>
+  <si>
+    <t>楽天系金融サービスKW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL023</t>
+  </si>
+  <si>
+    <t>楽天系非金融サービスKW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL024</t>
+  </si>
+  <si>
+    <t>旅行関連興味関心＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL025</t>
+  </si>
+  <si>
+    <t>旅行関連KW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL026</t>
+  </si>
+  <si>
+    <t>【LINE面】　楽天系金融サービスKW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL027</t>
+  </si>
+  <si>
+    <t>【LINE面】　楽天系非金融サービスKW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL028</t>
+  </si>
+  <si>
+    <t>【LINE面】　旅行関連興味関心＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL029</t>
+  </si>
+  <si>
+    <t>【LINE面】　旅行関連KW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL030</t>
+  </si>
+  <si>
+    <t>ジャンプ系KW／URL</t>
+  </si>
+  <si>
+    <t>DPL031</t>
+  </si>
+  <si>
+    <t>ジャンプ系KW／URL＋スマートターゲティング</t>
+  </si>
+  <si>
+    <t>DPL032</t>
+  </si>
+  <si>
+    <t>DS_Google</t>
+  </si>
+  <si>
+    <t>デマンド_楽天カード関連KW/URL指定</t>
+  </si>
+  <si>
+    <t>DPL033</t>
+  </si>
+  <si>
+    <t>デマンド_楽天カード関連KW/URL指定＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL034</t>
+  </si>
+  <si>
+    <t>デマンド_各種ページ訪問者 過去１〜7日</t>
+  </si>
+  <si>
+    <t>DPL035</t>
+  </si>
+  <si>
+    <t>デマンド_各種ページ訪問者 過去１〜7日＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL036</t>
+  </si>
+  <si>
+    <t>デマンド_ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心</t>
+  </si>
+  <si>
+    <t>DPL037</t>
+  </si>
+  <si>
+    <t>デマンド_ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL038</t>
+  </si>
+  <si>
+    <t>デマンド_DPIデータ活用_日本人向けアプリユーザー</t>
+  </si>
+  <si>
+    <t>DPL039</t>
+  </si>
+  <si>
+    <t>デマンド_DPIデータ活用_競合クレカ</t>
+  </si>
+  <si>
+    <t>DPL040</t>
+  </si>
+  <si>
+    <t>デマンド_DPIデータ活用_競合銀行</t>
+  </si>
+  <si>
+    <t>DPL041</t>
+  </si>
+  <si>
+    <t>デマンド_DPIデータ活用_競合証券</t>
+  </si>
+  <si>
+    <t>DPL042</t>
+  </si>
+  <si>
+    <t>デマンド_DPIデータ活用_競合QR決済</t>
+  </si>
+  <si>
+    <t>DPL043</t>
+  </si>
+  <si>
+    <t>デマンド_楽天系金融サービスKW／URL</t>
+  </si>
+  <si>
+    <t>DPL044</t>
+  </si>
+  <si>
+    <t>デマンド_楽天系金融サービスKW／URL＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL045</t>
+  </si>
+  <si>
+    <t>デマンド_楽天系非金融サービスKW／URL</t>
+  </si>
+  <si>
+    <t>DPL046</t>
+  </si>
+  <si>
+    <t>デマンド_楽天系非金融サービスKW／URL＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL047</t>
+  </si>
+  <si>
+    <t>デマンド_旅行関連興味関心</t>
+  </si>
+  <si>
+    <t>DPL048</t>
+  </si>
+  <si>
+    <t>デマンド_旅行関連興味関心＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL049</t>
+  </si>
+  <si>
+    <t>デマンド_旅行関連KW／URL</t>
+  </si>
+  <si>
+    <t>DPL050</t>
+  </si>
+  <si>
+    <t>デマンド_旅行関連KW／URL＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL051</t>
+  </si>
+  <si>
+    <t>デマンド_サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者</t>
+  </si>
+  <si>
+    <t>DPL052</t>
+  </si>
+  <si>
+    <t>デマンド_サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL053</t>
+  </si>
+  <si>
+    <t>デマンド_ジャンプ系KW／URL</t>
+  </si>
+  <si>
+    <t>DPL054</t>
+  </si>
+  <si>
+    <t>デマンド_ジャンプ系KW／URL＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL055</t>
+  </si>
+  <si>
+    <t>GDN_各種ページ訪問者 過去１〜7日</t>
+  </si>
+  <si>
+    <t>DPL056</t>
+  </si>
+  <si>
+    <t>GDN_各種ページ訪問者 過去１〜7日＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL057</t>
+  </si>
+  <si>
+    <t>GDN_ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心</t>
+  </si>
+  <si>
+    <t>DPL058</t>
+  </si>
+  <si>
+    <t>GDN_ドラゴンボールページ訪問者/アニメ漫画興味関心/ゲーム興味関心＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL059</t>
+  </si>
+  <si>
+    <t>カードアプリ愛用者</t>
+  </si>
+  <si>
+    <t>DPL060</t>
+  </si>
+  <si>
+    <t>カードアプリ愛用者＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL061</t>
+  </si>
+  <si>
+    <t>スマホタッチ決済ユーザー</t>
+  </si>
+  <si>
+    <t>DPL062</t>
+  </si>
+  <si>
+    <t>スマホタッチ決済ユーザー＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL063</t>
+  </si>
+  <si>
+    <t>クレジットカード比較サイト関連KW／URL</t>
+  </si>
+  <si>
+    <t>DPL064</t>
+  </si>
+  <si>
+    <t>クレジットカード比較サイト関連KW／URL＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL065</t>
+  </si>
+  <si>
+    <t>GDN_サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者</t>
+  </si>
+  <si>
+    <t>DPL066</t>
+  </si>
+  <si>
+    <t>GDN_サンリオ・キキララ・こぎみゅん 関連商品閲覧者・購入者/ 関連ページ訪問者＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL067</t>
+  </si>
+  <si>
+    <t>GDN_ジャンプ系KW／URL</t>
+  </si>
+  <si>
+    <t>DPL068</t>
+  </si>
+  <si>
+    <t>GDN_ジャンプ系KW／URL＋自動拡張</t>
+  </si>
+  <si>
+    <t>DPL069</t>
+  </si>
+  <si>
+    <t>GDN_DPIデータ活用_日本人向けアプリユーザー</t>
+  </si>
+  <si>
+    <t>DPL070</t>
+  </si>
+  <si>
+    <t>GDN_DPIデータ活用_競合クレカ</t>
+  </si>
+  <si>
+    <t>DPL071</t>
+  </si>
+  <si>
+    <t>GDN_DPIデータ活用_競合銀行</t>
+  </si>
+  <si>
+    <t>DPL072</t>
+  </si>
+  <si>
+    <t>GDN_DPIデータ活用_競合証券</t>
+  </si>
+  <si>
+    <t>DPL073</t>
+  </si>
+  <si>
+    <t>GDN_DPIデータ活用_競合QR決済</t>
+  </si>
+  <si>
+    <t>DPL074</t>
+  </si>
+  <si>
+    <t>DS_Twitter</t>
+  </si>
+  <si>
+    <t>CV最大化運用_18-24歳</t>
+  </si>
+  <si>
+    <t>DPL075</t>
+  </si>
+  <si>
+    <t>CV最大化運用_25-34歳</t>
+  </si>
+  <si>
+    <t>DPL076</t>
+  </si>
+  <si>
+    <t>CV最大化運用_35-44歳</t>
+  </si>
+  <si>
+    <t>DPL077</t>
+  </si>
+  <si>
+    <t>CV最大化運用_45-54歳</t>
+  </si>
+  <si>
+    <t>DPL078</t>
+  </si>
+  <si>
+    <t>ドラゴンボール/孫悟空関連キーワードターゲティング</t>
+  </si>
+  <si>
+    <t>DPL079</t>
+  </si>
+  <si>
+    <t>ドラゴンボール/孫悟空関連フォロワーターゲティング</t>
+  </si>
+  <si>
+    <t>DPL080</t>
+  </si>
+  <si>
+    <t>サンリオ/キキララ/こぎみゅん関連キーワードターゲティング</t>
+  </si>
+  <si>
+    <t>DPL081</t>
+  </si>
+  <si>
+    <t>サンリオ/キキララ/こぎみゅん関連フォロワーターゲティング</t>
+  </si>
+  <si>
+    <t>DPL082</t>
+  </si>
+  <si>
+    <t>キキララ保有者拡張・こぎみゅん保有者拡張</t>
+  </si>
+  <si>
+    <t>DPL083</t>
+  </si>
+  <si>
+    <t>ドラゴンボール保有者拡張</t>
+  </si>
+  <si>
+    <t>DPL084</t>
+  </si>
+  <si>
+    <t>コレクション広告</t>
+  </si>
+  <si>
+    <t>DPL085</t>
+  </si>
+  <si>
+    <t>DPA広告_iページ用</t>
+  </si>
+  <si>
+    <t>DPL086</t>
+  </si>
+  <si>
+    <t>DPA広告_kページ用</t>
+  </si>
+  <si>
+    <t>DPL087</t>
+  </si>
+  <si>
+    <t>DPL088</t>
+  </si>
+  <si>
+    <t>DPL089</t>
+  </si>
+  <si>
+    <t>DPL090</t>
+  </si>
+  <si>
+    <t>DPL091</t>
+  </si>
+  <si>
+    <t>DPL092</t>
+  </si>
+  <si>
+    <t>DS_Meta</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_b1</t>
+  </si>
+  <si>
+    <t>DPL093</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_b2</t>
+  </si>
+  <si>
+    <t>DPL094</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_b3</t>
+  </si>
+  <si>
+    <t>DPL095</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_b4</t>
+  </si>
+  <si>
+    <t>DPL096</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_b5</t>
+  </si>
+  <si>
+    <t>DPL097</t>
+  </si>
+  <si>
+    <t>高級志向(媒体データ)</t>
+  </si>
+  <si>
+    <t>DPL098</t>
+  </si>
+  <si>
+    <t>高級志向(SQREEMデータ)</t>
+  </si>
+  <si>
+    <t>DPL099</t>
+  </si>
+  <si>
+    <t>高級志向(楽天データ)</t>
+  </si>
+  <si>
+    <t>DPL100</t>
+  </si>
+  <si>
+    <t>高収入(年収平均以上)</t>
+  </si>
+  <si>
+    <t>DPL101</t>
+  </si>
+  <si>
+    <t>発行者拡張(保有者×Airis(楽天データ拡張))</t>
+  </si>
+  <si>
+    <t>DPL102</t>
+  </si>
+  <si>
+    <t>発行者拡張(保有者×媒体データ拡張)</t>
+  </si>
+  <si>
+    <t>DPL103</t>
+  </si>
+  <si>
+    <t>発行者拡張(直近発行者×Airis(楽天データ拡張))</t>
+  </si>
+  <si>
+    <t>DPL104</t>
+  </si>
+  <si>
+    <t>発行者拡張(直近発行者×媒体データ拡張)</t>
+  </si>
+  <si>
+    <t>DPL105</t>
+  </si>
+  <si>
+    <t>発行者拡張(上位カード保有者×Airis(楽天データ拡張))</t>
+  </si>
+  <si>
+    <t>DPL106</t>
+  </si>
+  <si>
+    <t>発行者拡張(上位カード保有者×媒体データ拡張)</t>
+  </si>
+  <si>
+    <t>DPL107</t>
+  </si>
+  <si>
+    <t>リターゲティング_リーセンシー1/3/7/10日</t>
+  </si>
+  <si>
+    <t>DPL108</t>
+  </si>
+  <si>
+    <t>リターゲティング_リーセンシー30/90/180日</t>
+  </si>
+  <si>
+    <t>DPL109</t>
+  </si>
+  <si>
+    <t>ASCバナー＋動画</t>
+  </si>
+  <si>
+    <t>DPL110</t>
+  </si>
+  <si>
+    <t>ASC(Click1日最適)バナー＋動画</t>
+  </si>
+  <si>
+    <t>DPL111</t>
+  </si>
+  <si>
+    <t>DPL112</t>
+  </si>
+  <si>
+    <t>DPL113</t>
+  </si>
+  <si>
+    <t>DPL114</t>
+  </si>
+  <si>
+    <t>DPL115</t>
+  </si>
+  <si>
+    <t>DPL116</t>
+  </si>
+  <si>
+    <t>ドラゴンボール/孫悟空関連閲覧・購買＋拡張</t>
+  </si>
+  <si>
+    <t>DPL117</t>
+  </si>
+  <si>
+    <t>アニメ漫画興味関心層</t>
+  </si>
+  <si>
+    <t>DPL118</t>
+  </si>
+  <si>
+    <t>サンリオ・キキララ・こぎみゅん関連閲覧購買・拡張</t>
+  </si>
+  <si>
+    <t>DPL119</t>
+  </si>
+  <si>
+    <t>エリアターゲティング ピューロランド×サンリオ興味関心</t>
+  </si>
+  <si>
+    <t>DPL120</t>
+  </si>
+  <si>
+    <t>キキララ保有者拡張</t>
+  </si>
+  <si>
+    <t>DPL121</t>
+  </si>
+  <si>
+    <t>こぎみゅん保有者拡張</t>
+  </si>
+  <si>
+    <t>DPL122</t>
+  </si>
+  <si>
+    <t>DPL123</t>
+  </si>
+  <si>
+    <t>推し活興味関心層</t>
+  </si>
+  <si>
+    <t>DPL124</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_1 (Meta1)_既存1</t>
+  </si>
+  <si>
+    <t>DPL125</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_2 (Meta2)_既存2</t>
+  </si>
+  <si>
+    <t>DPL126</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_3 (Meta3)_既存3</t>
+  </si>
+  <si>
+    <t>DPL127</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_4 (Meta4)_既存4</t>
+  </si>
+  <si>
+    <t>DPL128</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_5 (Meta5)_既存5</t>
+  </si>
+  <si>
+    <t>DPL129</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_6 (Meta6)_既存6</t>
+  </si>
+  <si>
+    <t>DPL130</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_7 (Meta7)_既存7</t>
+  </si>
+  <si>
+    <t>DPL131</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_8 (Meta8)_既存8</t>
+  </si>
+  <si>
+    <t>DPL132</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_9 (Meta9)_既存9</t>
+  </si>
+  <si>
+    <t>DPL133</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_10 (Meta10)_既存10</t>
+  </si>
+  <si>
+    <t>DPL134</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_11 (Meta11)_既存11</t>
+  </si>
+  <si>
+    <t>DPL135</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_12 (Meta12)_既存12</t>
+  </si>
+  <si>
+    <t>DPL136</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_13 (Meta13)_既存13</t>
+  </si>
+  <si>
+    <t>DPL137</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_14 (Meta14)_既存14 (exist001)</t>
+  </si>
+  <si>
+    <t>DPL138</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_15 (Meta15)_既存15 (exist002)</t>
+  </si>
+  <si>
+    <t>DPL139</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_16 (Meta16)_既存16 (exist005)</t>
+  </si>
+  <si>
+    <t>DPL140</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_17 (Meta17)_既存17 (exist006)</t>
+  </si>
+  <si>
+    <t>DPL141</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_18 (Meta18)_新規1</t>
+  </si>
+  <si>
+    <t>DPL142</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_19 (Meta19)_新規2</t>
+  </si>
+  <si>
+    <t>DPL143</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_20 (Meta20)_新規3</t>
+  </si>
+  <si>
+    <t>DPL144</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_21 (Meta21)_新規4</t>
+  </si>
+  <si>
+    <t>DPL145</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_22 (Meta22)_新規5</t>
+  </si>
+  <si>
+    <t>DPL146</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_23 (Meta23)_新規5</t>
+  </si>
+  <si>
+    <t>DPL147</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_24 (Meta24)_新規5</t>
+  </si>
+  <si>
+    <t>DPL148</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_25 (Meta25)_新規5</t>
+  </si>
+  <si>
+    <t>DPL149</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_26 (Meta26)_新規5</t>
+  </si>
+  <si>
+    <t>DPL150</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_27 (Meta27)_新規10</t>
+  </si>
+  <si>
+    <t>DPL151</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_28 (Meta28)_新規11</t>
+  </si>
+  <si>
+    <t>DPL152</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_29 (Meta29)_新規12</t>
+  </si>
+  <si>
+    <t>DPL153</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_30 (Meta30)_新規13</t>
+  </si>
+  <si>
+    <t>DPL154</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_31 (Meta31)_新規13</t>
+  </si>
+  <si>
+    <t>DPL155</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_32 (Meta32)_新規13</t>
+  </si>
+  <si>
+    <t>DPL156</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_33 (Meta33)_新規13</t>
+  </si>
+  <si>
+    <t>DPL157</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_34 (Meta34)_新規13</t>
+  </si>
+  <si>
+    <t>DPL158</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_35 (Meta35)_新規13</t>
+  </si>
+  <si>
+    <t>DPL159</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_36 (Meta36)_新規19</t>
+  </si>
+  <si>
+    <t>DPL160</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_37 (Meta37)_新規20</t>
+  </si>
+  <si>
+    <t>DPL161</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_38 (Meta38)_新規21</t>
+  </si>
+  <si>
+    <t>DPL162</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_39 (Meta39)_新規22</t>
+  </si>
+  <si>
+    <t>DPL163</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_40 (Meta40)_新規23</t>
+  </si>
+  <si>
+    <t>DPL164</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_41 (Meta41)_新規24</t>
+  </si>
+  <si>
+    <t>DPL165</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_42 (Meta42)_新規24</t>
+  </si>
+  <si>
+    <t>DPL166</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_43 (Meta43)_新規24</t>
+  </si>
+  <si>
+    <t>DPL167</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_44 (Meta44)_新規27</t>
+  </si>
+  <si>
+    <t>DPL168</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_45 (Meta45)_新規28</t>
+  </si>
+  <si>
+    <t>DPL169</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_46 (Meta46)_新規29</t>
+  </si>
+  <si>
+    <t>DPL170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1ADS-1AD_47_既存終了間近1 </t>
+  </si>
+  <si>
+    <t>DPL171</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_48_既存終了間近2</t>
+  </si>
+  <si>
+    <t>DPL172</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_49_新規終了間近1</t>
+  </si>
+  <si>
+    <t>DPL173</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_50_新規終了間近2</t>
+  </si>
+  <si>
+    <t>DPL174</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_51_簡易動画1</t>
+  </si>
+  <si>
+    <t>DPL175</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_52_簡易動画2</t>
+  </si>
+  <si>
+    <t>DPL176</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_53_簡易動画3</t>
+  </si>
+  <si>
+    <t>DPL177</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_54_簡易動画4(キキララ1)</t>
+  </si>
+  <si>
+    <t>DPL178</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_55_簡易動画4(キキララ2)</t>
+  </si>
+  <si>
+    <t>DPL179</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_56_キキララ1</t>
+  </si>
+  <si>
+    <t>DPL180</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_57_キキララ2</t>
+  </si>
+  <si>
+    <t>DPL181</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_58_キキララ3</t>
+  </si>
+  <si>
+    <t>DPL182</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_59_こぎみゅん</t>
+  </si>
+  <si>
+    <t>DPL183</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_60_ドラゴンボールDAIMA1</t>
+  </si>
+  <si>
+    <t>DPL184</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_61_ドラゴンボールDAIMA2</t>
+  </si>
+  <si>
+    <t>DPL185</t>
+  </si>
+  <si>
+    <t>1ADS-1AD_62_ドラゴンボールZ1</t>
+  </si>
+  <si>
+    <t>DPL186</t>
+  </si>
+  <si>
+    <t>予備</t>
+  </si>
+  <si>
+    <t>DPL187</t>
+  </si>
+  <si>
+    <t>DPL188</t>
+  </si>
+  <si>
+    <t>DPL189</t>
+  </si>
+  <si>
+    <t>DPL190</t>
+  </si>
+  <si>
+    <t>DPL191</t>
+  </si>
+  <si>
+    <t>DPL192</t>
+  </si>
+  <si>
+    <t>DPL193</t>
+  </si>
+  <si>
+    <t>DPL194</t>
+  </si>
+  <si>
+    <t>DPL195</t>
+  </si>
+  <si>
+    <t>DPL196</t>
+  </si>
+  <si>
+    <t>DPL197</t>
+  </si>
+  <si>
+    <t>DPL198</t>
+  </si>
+  <si>
+    <t>DPL199</t>
+  </si>
+  <si>
+    <t>DPL200</t>
+  </si>
+  <si>
+    <t>DS_Criteo</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>LP検証用（一般）</t>
+    <rPh sb="2" eb="5">
+      <t>ケンショウヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッパン</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MZH021</t>
+  </si>
+  <si>
+    <t>KKL011</t>
+  </si>
+  <si>
+    <t>DGB122R0</t>
+  </si>
+  <si>
+    <t>DGB123R0</t>
+  </si>
+  <si>
+    <t>クレジットカード広告（みずほ券面）</t>
+    <rPh sb="8" eb="10">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クレジットカード広告（キキ＆ララ券面）</t>
+    <rPh sb="8" eb="10">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クレジットカード広告（Z券面）</t>
+    <rPh sb="8" eb="10">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クレジットカード広告（DAIMA券面）</t>
+    <rPh sb="8" eb="10">
+      <t>コウコク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -2033,9 +2067,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C873EE-46C2-4AAA-9385-A8FDFAFB90AE}">
-  <dimension ref="B2:G230"/>
+  <dimension ref="B2:G234"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2078,35 +2112,35 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>439</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>444</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>431</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -2117,10 +2151,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -2131,136 +2165,136 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>432</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>432</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>433</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>435</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>436</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
@@ -2269,12 +2303,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -2283,3173 +2317,3229 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>424</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
-        <v>425</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>426</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>427</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
-        <v>429</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
-        <v>430</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>441</v>
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1"/>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D46" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D50" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D67" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="1" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D75" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D77" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D78" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D79" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D80" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="1" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="1" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G86" s="1"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D87" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D88" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="G91" s="1"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="G92" s="1"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="1" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="1" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="G94" s="1"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="1" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D95" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="G96" s="1"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="1" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c r="G97" s="1"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="1" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="G101" s="1"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G104" s="1"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="G105" s="1"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G106" s="1"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="G107" s="1"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="G108" s="1"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="1" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="G109" s="1"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G110" s="1"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="1" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="G111" s="1"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="1" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="G112" s="1"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="G113" s="1"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="G114" s="1"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D115" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="1" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>77</v>
+        <v>227</v>
       </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="1" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D117" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>200</v>
+        <v>229</v>
       </c>
       <c r="G117" s="1"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="1" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D118" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="G118" s="1"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="1" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>204</v>
+        <v>233</v>
       </c>
       <c r="G119" s="1"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D120" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="G120" s="1"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="1" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="G121" s="1"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="1" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="G122" s="1"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="1" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D123" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="G123" s="1"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="1" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="G124" s="1"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D125" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="1" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G126" s="1"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G127" s="1"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="1" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G128" s="1"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="1" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G129" s="1"/>
     </row>
     <row r="130" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="1" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D130" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="G130" s="1"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="1" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G131" s="1"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D132" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="G132" s="1"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="1" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D133" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G133" s="1"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G134" s="1"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="G135" s="1"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="G136" s="1"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G137" s="1"/>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="1" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="1" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D139" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G139" s="1"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D140" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G140" s="1"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="1" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="G141" s="1"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="1" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D142" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>188</v>
+        <v>275</v>
       </c>
       <c r="G142" s="1"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="1" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D143" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="G143" s="1"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="G144" s="1"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D145" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
       <c r="G145" s="1"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="1" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>255</v>
+        <v>97</v>
       </c>
       <c r="G146" s="1"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="1" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D147" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="G147" s="1"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D148" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="1" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D149" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="1" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D150" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="1" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B152" s="1" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D152" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B153" s="1" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D153" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B154" s="1" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D154" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B155" s="1" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D155" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B156" s="1" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D156" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>275</v>
+        <v>229</v>
       </c>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B157" s="1" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D157" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B158" s="1" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D158" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B159" s="1" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D159" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B160" s="1" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D160" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B161" s="1" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D161" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B162" s="1" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D162" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B163" s="1" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D163" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B164" s="1" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D164" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B165" s="1" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D165" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B166" s="1" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D166" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B167" s="1" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D167" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B168" s="1" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D168" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G168" s="1"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B169" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D169" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="G169" s="1"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B170" s="1" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D170" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="G170" s="1"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B171" s="1" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D171" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="G171" s="1"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B172" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D172" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="G172" s="1"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B173" s="1" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D173" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="G173" s="1"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B174" s="1" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D174" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="G174" s="1"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B175" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D175" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="G175" s="1"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B176" s="1" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D176" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="G176" s="1"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B177" s="1" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D177" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="G177" s="1"/>
     </row>
     <row r="178" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B178" s="1" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D178" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="G178" s="1"/>
     </row>
     <row r="179" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B179" s="1" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D179" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="G179" s="1"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B180" s="1" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D180" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="G180" s="1"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B181" s="1" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D181" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="G181" s="1"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B182" s="1" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D182" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="G182" s="1"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B183" s="1" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D183" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="G183" s="1"/>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B184" s="1" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D184" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="G184" s="1"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B185" s="1" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D185" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="G185" s="1"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B186" s="1" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D186" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="G186" s="1"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B187" s="1" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D187" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="G187" s="1"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B188" s="1" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D188" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B189" s="1" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D189" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="G189" s="1"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B190" s="1" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D190" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B191" s="1" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D191" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B192" s="1" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D192" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G192" s="1"/>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B193" s="1" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D193" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="G193" s="1"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B194" s="1" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D194" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G194" s="1"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B195" s="1" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D195" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="G195" s="1"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B196" s="1" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D196" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="G196" s="1"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B197" s="1" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D197" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="G197" s="1"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B198" s="1" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D198" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B199" s="1" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D199" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B200" s="1" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D200" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="G200" s="1"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B201" s="1" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D201" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B202" s="1" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D202" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B203" s="1" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D203" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B204" s="1" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D204" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="G204" s="1"/>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B205" s="1" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D205" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B206" s="1" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D206" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="G206" s="1"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B207" s="1" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D207" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="G207" s="1"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B208" s="1" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D208" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="G208" s="1"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B209" s="1" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D209" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="G209" s="1"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B210" s="1" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D210" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="G210" s="1"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B211" s="1" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D211" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="G211" s="1"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B212" s="1" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D212" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="G212" s="1"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B213" s="1" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D213" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="G213" s="1"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B214" s="1" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D214" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="G214" s="1"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B215" s="1" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D215" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="G215" s="1"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B216" s="1" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D216" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="G216" s="1"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B217" s="1" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D217" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="G217" s="1"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B218" s="1" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D218" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="G218" s="1"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B219" s="1" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D219" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="G219" s="1"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B220" s="1" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D220" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="G220" s="1"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B221" s="1" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D221" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G221" s="1"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B222" s="1" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D222" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="G222" s="1"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B223" s="1" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D223" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="G223" s="1"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B224" s="1" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D224" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="G224" s="1"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B225" s="1" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D225" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="G225" s="1"/>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B226" s="1" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D226" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="G226" s="1"/>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B227" s="1" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D227" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="G227" s="1"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B228" s="1" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D228" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G228" s="1"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B229" s="1" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D229" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="G229" s="1"/>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B230" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="D230" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B231" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D231" t="s">
+        <v>62</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B232" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D232" t="s">
+        <v>62</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B233" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D233" t="s">
+        <v>62</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B234" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D234" t="s">
+        <v>62</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G234" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
